--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.34444480875302</v>
+        <v>0.02711733333333333</v>
       </c>
       <c r="H2">
-        <v>2.34444480875302</v>
+        <v>0.08135199999999999</v>
       </c>
       <c r="I2">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="J2">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>168.633876808246</v>
+        <v>2.384732985441778</v>
       </c>
       <c r="R2">
-        <v>168.633876808246</v>
+        <v>21.462596868976</v>
       </c>
       <c r="S2">
-        <v>0.2811264117848696</v>
+        <v>0.0033278219951323</v>
       </c>
       <c r="T2">
-        <v>0.2811264117848696</v>
+        <v>0.0033278219951323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.34444480875302</v>
+        <v>0.02711733333333333</v>
       </c>
       <c r="H3">
-        <v>2.34444480875302</v>
+        <v>0.08135199999999999</v>
       </c>
       <c r="I3">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="J3">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>122.922005585159</v>
+        <v>1.422086408264</v>
       </c>
       <c r="R3">
-        <v>122.922005585159</v>
+        <v>12.798777674376</v>
       </c>
       <c r="S3">
-        <v>0.2049209981624859</v>
+        <v>0.001984478118636386</v>
       </c>
       <c r="T3">
-        <v>0.2049209981624859</v>
+        <v>0.001984478118636386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.34444480875302</v>
+        <v>0.02711733333333333</v>
       </c>
       <c r="H4">
-        <v>2.34444480875302</v>
+        <v>0.08135199999999999</v>
       </c>
       <c r="I4">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="J4">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>124.0468024318594</v>
+        <v>1.482435708189333</v>
       </c>
       <c r="R4">
-        <v>124.0468024318594</v>
+        <v>13.341921373704</v>
       </c>
       <c r="S4">
-        <v>0.2067961261467602</v>
+        <v>0.002068693722189652</v>
       </c>
       <c r="T4">
-        <v>0.2067961261467602</v>
+        <v>0.002068693722189651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.34444480875302</v>
+        <v>0.02711733333333333</v>
       </c>
       <c r="H5">
-        <v>2.34444480875302</v>
+        <v>0.08135199999999999</v>
       </c>
       <c r="I5">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="J5">
-        <v>0.7653909286049395</v>
+        <v>0.008098208194787031</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>43.51760467384227</v>
+        <v>0.5139592026355556</v>
       </c>
       <c r="R5">
-        <v>43.51760467384227</v>
+        <v>4.62563282372</v>
       </c>
       <c r="S5">
-        <v>0.0725473925108239</v>
+        <v>0.0007172143588286936</v>
       </c>
       <c r="T5">
-        <v>0.0725473925108239</v>
+        <v>0.0007172143588286933</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.718623645724466</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H6">
-        <v>0.718623645724466</v>
+        <v>7.318703</v>
       </c>
       <c r="I6">
-        <v>0.2346090713950605</v>
+        <v>0.7285423912111864</v>
       </c>
       <c r="J6">
-        <v>0.2346090713950605</v>
+        <v>0.7285423912111865</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>51.68997405788734</v>
+        <v>214.5387016269016</v>
       </c>
       <c r="R6">
-        <v>51.68997405788734</v>
+        <v>1930.848314642114</v>
       </c>
       <c r="S6">
-        <v>0.08617139810330383</v>
+        <v>0.2993822010428847</v>
       </c>
       <c r="T6">
-        <v>0.08617139810330383</v>
+        <v>0.2993822010428847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.718623645724466</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H7">
-        <v>0.718623645724466</v>
+        <v>7.318703</v>
       </c>
       <c r="I7">
-        <v>0.2346090713950605</v>
+        <v>0.7285423912111864</v>
       </c>
       <c r="J7">
-        <v>0.2346090713950605</v>
+        <v>0.7285423912111865</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>37.67828505220996</v>
+        <v>127.935736827871</v>
       </c>
       <c r="R7">
-        <v>37.67828505220996</v>
+        <v>1151.421631450839</v>
       </c>
       <c r="S7">
-        <v>0.06281277095337061</v>
+        <v>0.1785304105651794</v>
       </c>
       <c r="T7">
-        <v>0.06281277095337061</v>
+        <v>0.1785304105651794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.718623645724466</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H8">
-        <v>0.718623645724466</v>
+        <v>7.318703</v>
       </c>
       <c r="I8">
-        <v>0.2346090713950605</v>
+        <v>0.7285423912111864</v>
       </c>
       <c r="J8">
-        <v>0.2346090713950605</v>
+        <v>0.7285423912111865</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>38.02305990366195</v>
+        <v>133.3649653952257</v>
       </c>
       <c r="R8">
-        <v>38.02305990366195</v>
+        <v>1200.284688557031</v>
       </c>
       <c r="S8">
-        <v>0.06338753872065958</v>
+        <v>0.186106733094092</v>
       </c>
       <c r="T8">
-        <v>0.06338753872065958</v>
+        <v>0.186106733094092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.439567666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.318703</v>
+      </c>
+      <c r="I9">
+        <v>0.7285423912111864</v>
+      </c>
+      <c r="J9">
+        <v>0.7285423912111865</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N9">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P9">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q9">
+        <v>46.23752038310612</v>
+      </c>
+      <c r="R9">
+        <v>416.1376834479551</v>
+      </c>
+      <c r="S9">
+        <v>0.06452304650903035</v>
+      </c>
+      <c r="T9">
+        <v>0.06452304650903033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8818746666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.645624</v>
+      </c>
+      <c r="I10">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="J10">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>87.94127933333334</v>
+      </c>
+      <c r="N10">
+        <v>263.823838</v>
+      </c>
+      <c r="O10">
+        <v>0.4109331243514438</v>
+      </c>
+      <c r="P10">
+        <v>0.4109331243514437</v>
+      </c>
+      <c r="Q10">
+        <v>77.55318639832356</v>
+      </c>
+      <c r="R10">
+        <v>697.9786775849121</v>
+      </c>
+      <c r="S10">
+        <v>0.1082231013134268</v>
+      </c>
+      <c r="T10">
+        <v>0.1082231013134268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.718623645724466</v>
-      </c>
-      <c r="H9">
-        <v>0.718623645724466</v>
-      </c>
-      <c r="I9">
-        <v>0.2346090713950605</v>
-      </c>
-      <c r="J9">
-        <v>0.2346090713950605</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="N9">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="O9">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="P9">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="Q9">
-        <v>13.33909828337831</v>
-      </c>
-      <c r="R9">
-        <v>13.33909828337831</v>
-      </c>
-      <c r="S9">
-        <v>0.02223736361772647</v>
-      </c>
-      <c r="T9">
-        <v>0.02223736361772647</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8818746666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.645624</v>
+      </c>
+      <c r="I11">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="J11">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>52.441971</v>
+      </c>
+      <c r="N11">
+        <v>157.325913</v>
+      </c>
+      <c r="O11">
+        <v>0.2450515065683088</v>
+      </c>
+      <c r="P11">
+        <v>0.2450515065683087</v>
+      </c>
+      <c r="Q11">
+        <v>46.247245694968</v>
+      </c>
+      <c r="R11">
+        <v>416.2252112547121</v>
+      </c>
+      <c r="S11">
+        <v>0.06453661788449296</v>
+      </c>
+      <c r="T11">
+        <v>0.06453661788449296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8818746666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.645624</v>
+      </c>
+      <c r="I12">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="J12">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.667459</v>
+      </c>
+      <c r="N12">
+        <v>164.002377</v>
+      </c>
+      <c r="O12">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="P12">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="Q12">
+        <v>48.20984718313867</v>
+      </c>
+      <c r="R12">
+        <v>433.888624648248</v>
+      </c>
+      <c r="S12">
+        <v>0.06727536827704637</v>
+      </c>
+      <c r="T12">
+        <v>0.06727536827704636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8818746666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.645624</v>
+      </c>
+      <c r="I13">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="J13">
+        <v>0.2633594005940266</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N13">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P13">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q13">
+        <v>16.71431312707112</v>
+      </c>
+      <c r="R13">
+        <v>150.42881814364</v>
+      </c>
+      <c r="S13">
+        <v>0.02332431311906043</v>
+      </c>
+      <c r="T13">
+        <v>0.02332431311906042</v>
       </c>
     </row>
   </sheetData>
